--- a/biology/Histoire de la zoologie et de la botanique/Winfrid_Alden_Stearns/Winfrid_Alden_Stearns.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Winfrid_Alden_Stearns/Winfrid_Alden_Stearns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Winfrid Alden Stearns est un naturaliste américain né en 1852 et mort en 1909.
-Il est membre de l’Amherst College et fait une expédition dans le Labrador en 1882[1].
+Il est membre de l’Amherst College et fait une expédition dans le Labrador en 1882.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1880 : List of birds in vicinity of Fishkill-on-Hudson, N.Y.[2] (New York).
-1881-1883 : avec Elliott Coues (1842-1899) New England bird life: being a manual of New England ornithology[3] (Lee and Shepard, Boston ; C.T. Dillingham, New York).
-1884 : Labrador, a sketch of its people, its industries and its natural history[4] (Lee, Boston).
-1892 : Bird life in Labrador[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1880 : List of birds in vicinity of Fishkill-on-Hudson, N.Y. (New York).
+1881-1883 : avec Elliott Coues (1842-1899) New England bird life: being a manual of New England ornithology (Lee and Shepard, Boston ; C.T. Dillingham, New York).
+1884 : Labrador, a sketch of its people, its industries and its natural history (Lee, Boston).
+1892 : Bird life in Labrador.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sidney Irving Smith (1884) List of the Crustacea Dredged on the Coast of Labrador by the Expedition Under the Direction of Winfrid Alden Stearns, in 1882. Washington, D.C.: Smithsonian Institution Press.</t>
         </is>
